--- a/Experiments/230419_mod1-3/buffers_sp_230419.xlsx
+++ b/Experiments/230419_mod1-3/buffers_sp_230419.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230419_mod1-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC9A7E-2162-8D45-8DF6-57529BF1CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F722B2-79BA-0F46-B4FA-0FA5E2523ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>HCO3</t>
   </si>
   <si>
-    <t>H1,H2</t>
-  </si>
-  <si>
     <t>KOH</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>60,60</t>
+  </si>
+  <si>
+    <t>H1,H2,H3</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,6 +300,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,36 +632,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>50</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>50</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>60</v>
       </c>
     </row>
@@ -692,24 +696,24 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
+      <c r="E6" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -730,99 +734,99 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>932.95676000000003</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="5">
+        <v>250</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
-        <v>250</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>1000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
+      <c r="E11" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -833,47 +837,47 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -883,31 +887,31 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>25</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>69</v>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -918,13 +922,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -935,47 +939,47 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
       <c r="D20">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>50</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>69</v>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -985,48 +989,48 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>50</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1037,13 +1041,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1054,13 +1058,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1071,13 +1075,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1088,13 +1092,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
       </c>
       <c r="D29">
         <v>500</v>
@@ -1105,13 +1109,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -1122,13 +1126,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
       </c>
       <c r="D31">
         <v>100</v>
